--- a/data/scheduling_DNN/predict/0.9/result24.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result24.xlsx
@@ -570,10 +570,10 @@
         <v>0.9158320426940918</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.4000235497951508</v>
       </c>
       <c r="W2" t="n">
-        <v>0.248203918337822</v>
+        <v>0.2660583853721619</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.083549022674561</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.5153695344924927</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1849214881658554</v>
+        <v>0.322827935218811</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9028561115264893</v>
       </c>
       <c r="V4" t="n">
-        <v>0.708076536655426</v>
+        <v>0.4011419415473938</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03793908283114433</v>
+        <v>0.2517171204090118</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9068429470062256</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.864227831363678</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1983056962490082</v>
+        <v>0.001816048054024577</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8921949863433838</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.5180832147598267</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2931345701217651</v>
+        <v>0.1399596184492111</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9592020511627197</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.3990180194377899</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02470418810844421</v>
+        <v>0.3138061165809631</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9031510353088379</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.5271309614181519</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1950396746397018</v>
+        <v>0.1413910984992981</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8834061622619629</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.5273815393447876</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1279772520065308</v>
+        <v>0.1267535388469696</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.869596004486084</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.4004741907119751</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1339466124773026</v>
+        <v>0.2200752794742584</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8622729778289795</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.8828891515731812</v>
       </c>
       <c r="W11" t="n">
-        <v>0.04365476593375206</v>
+        <v>0.000425026606535539</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8498358726501465</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.887788712978363</v>
       </c>
       <c r="W12" t="n">
-        <v>0.06509700417518616</v>
+        <v>0.001440418069250882</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8628380298614502</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.5224643349647522</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1592119783163071</v>
+        <v>0.1158542558550835</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8531289100646973</v>
       </c>
       <c r="V14" t="n">
-        <v>0.35074183344841</v>
+        <v>0.5206593871116638</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2523927390575409</v>
+        <v>0.1105359867215157</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.8970530033111572</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.4021815657615662</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2575485706329346</v>
+        <v>0.2448977380990982</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8678269386291504</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.8819977641105652</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2026572525501251</v>
+        <v>0.0002008122974075377</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8710651397705078</v>
       </c>
       <c r="V17" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.8841582536697388</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01091252733021975</v>
+        <v>0.0001714296377031133</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8639440536499023</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.4006694853305817</v>
       </c>
       <c r="W18" t="n">
-        <v>0.001176062738522887</v>
+        <v>0.2146233320236206</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8588051795959473</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.8742448091506958</v>
       </c>
       <c r="W19" t="n">
-        <v>0.000611152732744813</v>
+        <v>0.0002383821556577459</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8584301471710205</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.8905366063117981</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1103622168302536</v>
+        <v>0.001030824729241431</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8625400066375732</v>
       </c>
       <c r="V21" t="n">
-        <v>0.655465304851532</v>
+        <v>0.526411771774292</v>
       </c>
       <c r="W21" t="n">
-        <v>0.04287993162870407</v>
+        <v>0.1129821911454201</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5215189456939697</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.4010256826877594</v>
       </c>
       <c r="W22" t="n">
-        <v>0.000968986947555095</v>
+        <v>0.0145186260342598</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5474259853363037</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.5260688662528992</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01684686914086342</v>
+        <v>0.0004561265232041478</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5324690341949463</v>
       </c>
       <c r="V24" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.8657055497169495</v>
       </c>
       <c r="W24" t="n">
-        <v>0.03082633577287197</v>
+        <v>0.1110465750098228</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5443720817565918</v>
       </c>
       <c r="V25" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.8681521415710449</v>
       </c>
       <c r="W25" t="n">
-        <v>0.06739803403615952</v>
+        <v>0.1048335283994675</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5174431800842285</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.5277819037437439</v>
       </c>
       <c r="W26" t="n">
-        <v>0.003173491451889277</v>
+        <v>0.0001068892088369466</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5199580192565918</v>
       </c>
       <c r="V27" t="n">
-        <v>0.503772497177124</v>
+        <v>0.5216413736343384</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0002619711158331484</v>
+        <v>2.833681946867728e-06</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5705280303955078</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.8780987858772278</v>
       </c>
       <c r="W28" t="n">
-        <v>0.05480670928955078</v>
+        <v>0.09459976851940155</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5360360145568848</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.5186112523078918</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02694414556026459</v>
+        <v>0.0003036223351955414</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5123929977416992</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.8901097774505615</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01964227668941021</v>
+        <v>0.1426699608564377</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5140321254730225</v>
       </c>
       <c r="V31" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.8667727112770081</v>
       </c>
       <c r="W31" t="n">
-        <v>0.2131792902946472</v>
+        <v>0.1244259178638458</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5264840126037598</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.4001515805721283</v>
       </c>
       <c r="W32" t="n">
-        <v>4.615486659531598e-07</v>
+        <v>0.01595988310873508</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5515899658203125</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.8711965084075928</v>
       </c>
       <c r="W33" t="n">
-        <v>0.003687913296744227</v>
+        <v>0.1021483391523361</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5347549915313721</v>
       </c>
       <c r="V34" t="n">
-        <v>0.975210964679718</v>
+        <v>0.8746073842048645</v>
       </c>
       <c r="W34" t="n">
-        <v>0.1940014660358429</v>
+        <v>0.1154996454715729</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5150079727172852</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.5153174996376038</v>
       </c>
       <c r="W35" t="n">
-        <v>0.000102200465335045</v>
+        <v>9.580691084920545e-08</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.513552188873291</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.8763908743858337</v>
       </c>
       <c r="W36" t="n">
-        <v>8.142009755829349e-05</v>
+        <v>0.131651908159256</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5116209983825684</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.4011204242706299</v>
       </c>
       <c r="W37" t="n">
-        <v>0.002515902044251561</v>
+        <v>0.01221037656068802</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5144779682159424</v>
       </c>
       <c r="V38" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.5264111757278442</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01915563829243183</v>
+        <v>0.0001424014481017366</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5155918598175049</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.8650042414665222</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0001239360572071746</v>
+        <v>0.1220890134572983</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5169968605041504</v>
       </c>
       <c r="V40" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.5290234088897705</v>
       </c>
       <c r="W40" t="n">
-        <v>0.02131084725260735</v>
+        <v>0.0001446378591936082</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5230939388275146</v>
       </c>
       <c r="V41" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.5249210000038147</v>
       </c>
       <c r="W41" t="n">
-        <v>0.02304989285767078</v>
+        <v>3.338152509968495e-06</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3878488540649414</v>
       </c>
       <c r="V42" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.5188803672790527</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0002481035189703107</v>
+        <v>0.01716925762593746</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4163708686828613</v>
       </c>
       <c r="V43" t="n">
-        <v>0.802345335483551</v>
+        <v>0.5223190784454346</v>
       </c>
       <c r="W43" t="n">
-        <v>0.1489762961864471</v>
+        <v>0.01122502330690622</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3840310573577881</v>
       </c>
       <c r="V44" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.8875306248664856</v>
       </c>
       <c r="W44" t="n">
-        <v>0.07189187407493591</v>
+        <v>0.2535118162631989</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.4026141166687012</v>
       </c>
       <c r="V45" t="n">
-        <v>0.652911365032196</v>
+        <v>0.4010374844074249</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0626487135887146</v>
+        <v>2.485769300619722e-06</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3885538578033447</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.8702470660209656</v>
       </c>
       <c r="W46" t="n">
-        <v>0.07015598565340042</v>
+        <v>0.2320283502340317</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3955121040344238</v>
       </c>
       <c r="V47" t="n">
-        <v>0.590633749961853</v>
+        <v>0.8750174641609192</v>
       </c>
       <c r="W47" t="n">
-        <v>0.03807245567440987</v>
+        <v>0.2299253940582275</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.390099048614502</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.5149590373039246</v>
       </c>
       <c r="W48" t="n">
-        <v>0.005045394878834486</v>
+        <v>0.01559001673012972</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3808498382568359</v>
       </c>
       <c r="V49" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.3992179334163666</v>
       </c>
       <c r="W49" t="n">
-        <v>0.1760558187961578</v>
+        <v>0.0003373869112692773</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3873260021209717</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.5250413417816162</v>
       </c>
       <c r="W50" t="n">
-        <v>0.03545651212334633</v>
+        <v>0.01896551437675953</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3878731727600098</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.3999330997467041</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01877434737980366</v>
+        <v>0.0001454418379580602</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4749269485473633</v>
       </c>
       <c r="V52" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.4010288417339325</v>
       </c>
       <c r="W52" t="n">
-        <v>0.05023130774497986</v>
+        <v>0.005460930056869984</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3870069980621338</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.3990068733692169</v>
       </c>
       <c r="W53" t="n">
-        <v>0.04013285785913467</v>
+        <v>0.0001439970073988661</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3869731426239014</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.5291231274604797</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0009344684658572078</v>
+        <v>0.02020661905407906</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3853850364685059</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.4003391861915588</v>
       </c>
       <c r="W55" t="n">
-        <v>0.07208253443241119</v>
+        <v>0.0002236266009276733</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3874011039733887</v>
       </c>
       <c r="V56" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.3992147445678711</v>
       </c>
       <c r="W56" t="n">
-        <v>0.1720721274614334</v>
+        <v>0.0001395621075062081</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3864510059356689</v>
       </c>
       <c r="V57" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.3990242183208466</v>
       </c>
       <c r="W57" t="n">
-        <v>0.07122953236103058</v>
+        <v>0.0001580856769578531</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.4420790672302246</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.8752272725105286</v>
       </c>
       <c r="W58" t="n">
-        <v>0.0004582281108014286</v>
+        <v>0.1876173615455627</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3854479789733887</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.399199903011322</v>
       </c>
       <c r="W59" t="n">
-        <v>0.001036297529935837</v>
+        <v>0.0001891154097393155</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3869140148162842</v>
       </c>
       <c r="V60" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.8617059588432312</v>
       </c>
       <c r="W60" t="n">
-        <v>0.3460965156555176</v>
+        <v>0.2254273891448975</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3865559101104736</v>
       </c>
       <c r="V61" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.8777803778648376</v>
       </c>
       <c r="W61" t="n">
-        <v>0.07119473069906235</v>
+        <v>0.2413014769554138</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8937709331512451</v>
       </c>
       <c r="V62" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.5248798727989197</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2722420692443848</v>
+        <v>0.1360806077718735</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8729770183563232</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.8675649166107178</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1464312821626663</v>
+        <v>2.929084439529106e-05</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8688240051269531</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.5154994130134583</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1429204791784286</v>
+        <v>0.1248382702469826</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.880122184753418</v>
       </c>
       <c r="V65" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.8767123222351074</v>
       </c>
       <c r="W65" t="n">
-        <v>0.005684332456439734</v>
+        <v>1.162716216640547e-05</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.923098087310791</v>
       </c>
       <c r="V66" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.5295614004135132</v>
       </c>
       <c r="W66" t="n">
-        <v>0.07252187281847</v>
+        <v>0.1548711210489273</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8765921592712402</v>
       </c>
       <c r="V67" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.877591073513031</v>
       </c>
       <c r="W67" t="n">
-        <v>0.02834141440689564</v>
+        <v>9.978297157431371e-07</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.886073112487793</v>
       </c>
       <c r="V68" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.3994915187358856</v>
       </c>
       <c r="W68" t="n">
-        <v>0.008011383004486561</v>
+        <v>0.2367616444826126</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8742110729217529</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.5267530679702759</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1377481818199158</v>
+        <v>0.1207270622253418</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.9114389419555664</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.4972564280033112</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1655429154634476</v>
+        <v>0.1715471595525742</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.863980770111084</v>
       </c>
       <c r="V71" t="n">
-        <v>0.490833193063736</v>
+        <v>0.8739830851554871</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1392391175031662</v>
+        <v>0.0001000463089440018</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8579771518707275</v>
       </c>
       <c r="V72" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.8667295575141907</v>
       </c>
       <c r="W72" t="n">
-        <v>0.04168054088950157</v>
+        <v>7.660460687475279e-05</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8670721054077148</v>
       </c>
       <c r="V73" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.8814161419868469</v>
       </c>
       <c r="W73" t="n">
-        <v>0.08458255231380463</v>
+        <v>0.0002057513920590281</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.9190080165863037</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.8671915531158447</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1842000037431717</v>
+        <v>0.002684945939108729</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8657910823822021</v>
       </c>
       <c r="V75" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.5322468876838684</v>
       </c>
       <c r="W75" t="n">
-        <v>0.2652494311332703</v>
+        <v>0.1112517267465591</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8570520877838135</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.8668123483657837</v>
       </c>
       <c r="W76" t="n">
-        <v>0.04159194976091385</v>
+        <v>9.526268695481122e-05</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8620641231536865</v>
       </c>
       <c r="V77" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.4022922217845917</v>
       </c>
       <c r="W77" t="n">
-        <v>0.0007771921227686107</v>
+        <v>0.2113901972770691</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.9132330417633057</v>
       </c>
       <c r="V78" t="n">
-        <v>0.654336154460907</v>
+        <v>0.8750686645507812</v>
       </c>
       <c r="W78" t="n">
-        <v>0.06702759861946106</v>
+        <v>0.001456519705243409</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8653810024261475</v>
       </c>
       <c r="V79" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.8696909546852112</v>
       </c>
       <c r="W79" t="n">
-        <v>0.08365839719772339</v>
+        <v>1.857568895502482e-05</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8517961502075195</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.5154763460159302</v>
       </c>
       <c r="W80" t="n">
-        <v>0.07269841432571411</v>
+        <v>0.1131110116839409</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8566889762878418</v>
       </c>
       <c r="V81" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.8774786591529846</v>
       </c>
       <c r="W81" t="n">
-        <v>0.2559737861156464</v>
+        <v>0.0004322109161876142</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.6077280044555664</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.5155659914016724</v>
       </c>
       <c r="W82" t="n">
-        <v>0.01370731554925442</v>
+        <v>0.008493836969137192</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5324530601501465</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.4022597968578339</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01318484451621771</v>
+        <v>0.01695028506219387</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5195989608764648</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.4005012810230255</v>
       </c>
       <c r="W84" t="n">
-        <v>0.0008514266228303313</v>
+        <v>0.0141842570155859</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5172631740570068</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.3999084532260895</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0006924668559804559</v>
+        <v>0.01377213094383478</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5184378623962402</v>
       </c>
       <c r="V86" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.3990422189235687</v>
       </c>
       <c r="W86" t="n">
-        <v>0.01953521184623241</v>
+        <v>0.01425531972199678</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5135190486907959</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.4026548862457275</v>
       </c>
       <c r="W87" t="n">
-        <v>0.000120605131087359</v>
+        <v>0.01229086238890886</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5161938667297363</v>
       </c>
       <c r="V88" t="n">
-        <v>0.801636278629303</v>
+        <v>0.5268464684486389</v>
       </c>
       <c r="W88" t="n">
-        <v>0.08147737383842468</v>
+        <v>0.00011347792315064</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.51385498046875</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.5656846165657043</v>
       </c>
       <c r="W89" t="n">
-        <v>0.009286690503358841</v>
+        <v>0.002686311258003116</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.52976393699646</v>
       </c>
       <c r="V90" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.5156428813934326</v>
       </c>
       <c r="W90" t="n">
-        <v>0.198794037103653</v>
+        <v>0.0001994042104342952</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5083980560302734</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.8656496405601501</v>
       </c>
       <c r="W91" t="n">
-        <v>0.006800003349781036</v>
+        <v>0.1276286989450455</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5183050632476807</v>
       </c>
       <c r="V92" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.4011525213718414</v>
       </c>
       <c r="W92" t="n">
-        <v>0.01943226158618927</v>
+        <v>0.01372471824288368</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5741360187530518</v>
       </c>
       <c r="V93" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.5269589424133301</v>
       </c>
       <c r="W93" t="n">
-        <v>0.1615583896636963</v>
+        <v>0.00222567655146122</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5157358646392822</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.5187960863113403</v>
       </c>
       <c r="W94" t="n">
-        <v>0.0006183883524499834</v>
+        <v>9.364956895296928e-06</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5177850723266602</v>
       </c>
       <c r="V95" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.402195543050766</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01838654465973377</v>
+        <v>0.013360938988626</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5170001983642578</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.5699204802513123</v>
       </c>
       <c r="W96" t="n">
-        <v>0.0031221027020365</v>
+        <v>0.002800556132569909</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5156979560852051</v>
       </c>
       <c r="V97" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.5267907977104187</v>
       </c>
       <c r="W97" t="n">
-        <v>0.02841810882091522</v>
+        <v>0.0001230511406902224</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5150308609008789</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.4006160795688629</v>
       </c>
       <c r="W98" t="n">
-        <v>9.861702710622922e-05</v>
+        <v>0.01309074182063341</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5117359161376953</v>
       </c>
       <c r="V99" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.5259091258049011</v>
       </c>
       <c r="W99" t="n">
-        <v>0.02591416239738464</v>
+        <v>0.0002008798765018582</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5169169902801514</v>
       </c>
       <c r="V100" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.8680227398872375</v>
       </c>
       <c r="W100" t="n">
-        <v>0.08168482780456543</v>
+        <v>0.1232752501964569</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5151300430297852</v>
       </c>
       <c r="V101" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.503072202205658</v>
       </c>
       <c r="W101" t="n">
-        <v>0.02044849842786789</v>
+        <v>0.0001453915319871157</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4011440277099609</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.5307307243347168</v>
       </c>
       <c r="W102" t="n">
-        <v>0.01518765557557344</v>
+        <v>0.01679271273314953</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3933029174804688</v>
       </c>
       <c r="V103" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.5152109265327454</v>
       </c>
       <c r="W103" t="n">
-        <v>0.001811521942727268</v>
+        <v>0.01486156228929758</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4623069763183594</v>
       </c>
       <c r="V104" t="n">
-        <v>0.838257908821106</v>
+        <v>0.4005384743213654</v>
       </c>
       <c r="W104" t="n">
-        <v>0.1413391083478928</v>
+        <v>0.003815347794443369</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4016380310058594</v>
       </c>
       <c r="V105" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.5298388600349426</v>
       </c>
       <c r="W105" t="n">
-        <v>0.002478886395692825</v>
+        <v>0.01643545180559158</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3869550228118896</v>
       </c>
       <c r="V106" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.3990257084369659</v>
       </c>
       <c r="W106" t="n">
-        <v>0.0002315609017387033</v>
+        <v>0.0001457014586776495</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3876049518585205</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.4025192558765411</v>
       </c>
       <c r="W107" t="n">
-        <v>0.03979184105992317</v>
+        <v>0.0002224364579888061</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3848268985748291</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.5155948996543884</v>
       </c>
       <c r="W108" t="n">
-        <v>0.04405629262328148</v>
+        <v>0.01710027083754539</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3837590217590332</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.3999195694923401</v>
       </c>
       <c r="W109" t="n">
-        <v>0.01145574077963829</v>
+        <v>0.0002611633099149913</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3923969268798828</v>
       </c>
       <c r="V110" t="n">
-        <v>0.800457239151001</v>
+        <v>0.8776760697364807</v>
       </c>
       <c r="W110" t="n">
-        <v>0.1665132194757462</v>
+        <v>0.23549585044384</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3905560970306396</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.4000163972377777</v>
       </c>
       <c r="W111" t="n">
-        <v>0.09528790414333344</v>
+        <v>8.94972836249508e-05</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4197750091552734</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.5056965351104736</v>
       </c>
       <c r="W112" t="n">
-        <v>0.05522724613547325</v>
+        <v>0.007382508832961321</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3878428936004639</v>
       </c>
       <c r="V113" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.5454252958297729</v>
       </c>
       <c r="W113" t="n">
-        <v>0.04122190177440643</v>
+        <v>0.02483221329748631</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3895189762115479</v>
       </c>
       <c r="V114" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.3990158140659332</v>
       </c>
       <c r="W114" t="n">
-        <v>0.1723302155733109</v>
+        <v>9.01899256859906e-05</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3900959491729736</v>
       </c>
       <c r="V115" t="n">
-        <v>0.417632520198822</v>
+        <v>0.5276111364364624</v>
       </c>
       <c r="W115" t="n">
-        <v>0.0007582627586089075</v>
+        <v>0.01891042664647102</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3928630352020264</v>
       </c>
       <c r="V116" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.4022966921329498</v>
       </c>
       <c r="W116" t="n">
-        <v>0.06766819953918457</v>
+        <v>8.899388194549829e-05</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3898940086364746</v>
       </c>
       <c r="V117" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.4011242687702179</v>
       </c>
       <c r="W117" t="n">
-        <v>0.03710374236106873</v>
+        <v>0.000126118742628023</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4062461853027344</v>
       </c>
       <c r="V118" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.5174212455749512</v>
       </c>
       <c r="W118" t="n">
-        <v>0.1554104387760162</v>
+        <v>0.01235989388078451</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3928899765014648</v>
       </c>
       <c r="V119" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.8698652982711792</v>
       </c>
       <c r="W119" t="n">
-        <v>0.06834528595209122</v>
+        <v>0.2275054603815079</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4058489799499512</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.8826231956481934</v>
       </c>
       <c r="W120" t="n">
-        <v>0.01414655242115259</v>
+        <v>0.2273136526346207</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3893370628356934</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.875944197177887</v>
       </c>
       <c r="W121" t="n">
-        <v>0.01348160766065121</v>
+        <v>0.2367864996194839</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.9344758987426758</v>
       </c>
       <c r="V122" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.5273435711860657</v>
       </c>
       <c r="W122" t="n">
-        <v>0.05838656425476074</v>
+        <v>0.1657567322254181</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.923220157623291</v>
       </c>
       <c r="V123" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.8727821111679077</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1873178482055664</v>
+        <v>0.002543996553868055</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.886603832244873</v>
       </c>
       <c r="V124" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.4025543630123138</v>
       </c>
       <c r="W124" t="n">
-        <v>0.2648701369762421</v>
+        <v>0.234303891658783</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8658430576324463</v>
       </c>
       <c r="V125" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.8712577819824219</v>
       </c>
       <c r="W125" t="n">
-        <v>0.01214723009616137</v>
+        <v>2.931924063886981e-05</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.9301521778106689</v>
       </c>
       <c r="V126" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.8821396231651306</v>
       </c>
       <c r="W126" t="n">
-        <v>0.3042323589324951</v>
+        <v>0.002305205445736647</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8670220375061035</v>
       </c>
       <c r="V127" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.3992197215557098</v>
       </c>
       <c r="W127" t="n">
-        <v>0.02671208418905735</v>
+        <v>0.2188390046358109</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8588049411773682</v>
       </c>
       <c r="V128" t="n">
-        <v>0.490329772233963</v>
+        <v>0.8715118765830994</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1357739567756653</v>
+        <v>0.0001614662032807246</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8632090091705322</v>
       </c>
       <c r="V129" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.875458300113678</v>
       </c>
       <c r="W129" t="n">
-        <v>0.2625777423381805</v>
+        <v>0.0001500451326137409</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9286599159240723</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.5153558254241943</v>
       </c>
       <c r="W130" t="n">
-        <v>0.05567833408713341</v>
+        <v>0.1708202660083771</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8627760410308838</v>
       </c>
       <c r="V131" t="n">
-        <v>0.417652815580368</v>
+        <v>0.8806076645851135</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1981346905231476</v>
+        <v>0.0003179667983204126</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8678469657897949</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.8981475830078125</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1170184761285782</v>
+        <v>0.0009181274217553437</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8895740509033203</v>
       </c>
       <c r="V133" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.8903089165687561</v>
       </c>
       <c r="W133" t="n">
-        <v>0.007934604771435261</v>
+        <v>5.400275426836743e-07</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.9131011962890625</v>
       </c>
       <c r="V134" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.4021070301532745</v>
       </c>
       <c r="W134" t="n">
-        <v>0.3204348683357239</v>
+        <v>0.2611150741577148</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8853030204772949</v>
       </c>
       <c r="V135" t="n">
-        <v>0.524641752243042</v>
+        <v>0.4000021517276764</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1300765573978424</v>
+        <v>0.2355169355869293</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8666760921478271</v>
       </c>
       <c r="V136" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.4022612869739532</v>
       </c>
       <c r="W136" t="n">
-        <v>0.02659766376018524</v>
+        <v>0.2156811058521271</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8663780689239502</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.4000273644924164</v>
       </c>
       <c r="W137" t="n">
-        <v>0.08430828899145126</v>
+        <v>0.2174829840660095</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9638628959655762</v>
       </c>
       <c r="V138" t="n">
-        <v>0.372467577457428</v>
+        <v>0.5311046242713928</v>
       </c>
       <c r="W138" t="n">
-        <v>0.349748432636261</v>
+        <v>0.1872797161340714</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8622651100158691</v>
       </c>
       <c r="V139" t="n">
-        <v>0.505433976650238</v>
+        <v>0.3990401327610016</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1273284554481506</v>
+        <v>0.2145773768424988</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8692471981048584</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.8593904376029968</v>
       </c>
       <c r="W140" t="n">
-        <v>0.04671489074826241</v>
+        <v>9.715573105495423e-05</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8623571395874023</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.8745067715644836</v>
       </c>
       <c r="W141" t="n">
-        <v>0.04312548041343689</v>
+        <v>0.0001476135512348264</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.6044659614562988</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.8721657395362854</v>
       </c>
       <c r="W142" t="n">
-        <v>0.03493940457701683</v>
+        <v>0.07166317105293274</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5224449634552002</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.5260554552078247</v>
       </c>
       <c r="W143" t="n">
-        <v>4.478821210796013e-06</v>
+        <v>1.303565113630611e-05</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5226070880889893</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.523870050907135</v>
       </c>
       <c r="W144" t="n">
-        <v>0.00287237367592752</v>
+        <v>1.595075104887655e-06</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5178959369659424</v>
       </c>
       <c r="V145" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.8894557356834412</v>
       </c>
       <c r="W145" t="n">
-        <v>0.08048105239868164</v>
+        <v>0.138056680560112</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5190908908843994</v>
       </c>
       <c r="V146" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.875703752040863</v>
       </c>
       <c r="W146" t="n">
-        <v>0.02833363972604275</v>
+        <v>0.1271727383136749</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5860030651092529</v>
       </c>
       <c r="V147" t="n">
-        <v>0.97564297914505</v>
+        <v>0.5289759635925293</v>
       </c>
       <c r="W147" t="n">
-        <v>0.151819258928299</v>
+        <v>0.00325209042057395</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5164039134979248</v>
       </c>
       <c r="V148" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.509023129940033</v>
       </c>
       <c r="W148" t="n">
-        <v>0.2109842896461487</v>
+        <v>5.44759641343262e-05</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5191459655761719</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.8762794137001038</v>
       </c>
       <c r="W149" t="n">
-        <v>0.003256190801039338</v>
+        <v>0.1275442987680435</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5155618190765381</v>
       </c>
       <c r="V150" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.4021871984004974</v>
       </c>
       <c r="W150" t="n">
-        <v>0.01904255524277687</v>
+        <v>0.01285380497574806</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5148890018463135</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.4004465043544769</v>
       </c>
       <c r="W151" t="n">
-        <v>0.0005839430959895253</v>
+        <v>0.01309708505868912</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5184359550476074</v>
       </c>
       <c r="V152" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.5292346477508545</v>
       </c>
       <c r="W152" t="n">
-        <v>0.01975874789059162</v>
+        <v>0.0001166117654065602</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5217199325561523</v>
       </c>
       <c r="V153" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.877937376499176</v>
       </c>
       <c r="W153" t="n">
-        <v>1.144173620559741e-05</v>
+        <v>0.1268908679485321</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5131559371948242</v>
       </c>
       <c r="V154" t="n">
-        <v>0.371780127286911</v>
+        <v>0.8739239573478699</v>
       </c>
       <c r="W154" t="n">
-        <v>0.01998711936175823</v>
+        <v>0.1301535665988922</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.518787145614624</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.3990282416343689</v>
       </c>
       <c r="W155" t="n">
-        <v>0.004024984780699015</v>
+        <v>0.01434219535440207</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5176479816436768</v>
       </c>
       <c r="V156" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.8702539801597595</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01856869645416737</v>
+        <v>0.1243309900164604</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5177152156829834</v>
       </c>
       <c r="V157" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.4004562795162201</v>
       </c>
       <c r="W157" t="n">
-        <v>0.1029937341809273</v>
+        <v>0.01374965813010931</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5725910663604736</v>
       </c>
       <c r="V158" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.3990229666233063</v>
       </c>
       <c r="W158" t="n">
-        <v>0.05279107764363289</v>
+        <v>0.03012588433921337</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5187699794769287</v>
       </c>
       <c r="V159" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.8760311007499695</v>
       </c>
       <c r="W159" t="n">
-        <v>0.0808546394109726</v>
+        <v>0.1276355087757111</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5169379711151123</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.8697667121887207</v>
       </c>
       <c r="W160" t="n">
-        <v>6.452394154621288e-05</v>
+        <v>0.1244881227612495</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5167171955108643</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.8738439083099365</v>
       </c>
       <c r="W161" t="n">
-        <v>6.194563320605084e-05</v>
+        <v>0.1275394856929779</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3881561756134033</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.8623184561729431</v>
       </c>
       <c r="W162" t="n">
-        <v>0.005726301111280918</v>
+        <v>0.2248298674821854</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3847639560699463</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.3999239802360535</v>
       </c>
       <c r="W163" t="n">
-        <v>0.008716992102563381</v>
+        <v>0.0002298263279953972</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.4290227890014648</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.8747735023498535</v>
       </c>
       <c r="W164" t="n">
-        <v>0.009098983369767666</v>
+        <v>0.1986936926841736</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3951821327209473</v>
       </c>
       <c r="V165" t="n">
-        <v>0.405481219291687</v>
+        <v>0.5272274017333984</v>
       </c>
       <c r="W165" t="n">
-        <v>0.0001060711874742992</v>
+        <v>0.0174359530210495</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3900890350341797</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.4000373482704163</v>
       </c>
       <c r="W166" t="n">
-        <v>0.06955702602863312</v>
+        <v>9.896893607219681e-05</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3875689506530762</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.5276948809623718</v>
       </c>
       <c r="W167" t="n">
-        <v>0.03551409021019936</v>
+        <v>0.0196352768689394</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3894119262695312</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.8879624605178833</v>
       </c>
       <c r="W168" t="n">
-        <v>0.0007968931458890438</v>
+        <v>0.2485526353120804</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3889319896697998</v>
       </c>
       <c r="V169" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.5260067582130432</v>
       </c>
       <c r="W169" t="n">
-        <v>0.1690293550491333</v>
+        <v>0.01878949254751205</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.4485461711883545</v>
       </c>
       <c r="V170" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.3994694352149963</v>
       </c>
       <c r="W170" t="n">
-        <v>0.125121682882309</v>
+        <v>0.002408525906503201</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3905320167541504</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.5143190026283264</v>
       </c>
       <c r="W171" t="n">
-        <v>0.01310740783810616</v>
+        <v>0.0153232179582119</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3975460529327393</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.5320213437080383</v>
       </c>
       <c r="W172" t="n">
-        <v>0.008711239323019981</v>
+        <v>0.01808360405266285</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3932430744171143</v>
       </c>
       <c r="V173" t="n">
-        <v>0.576347291469574</v>
+        <v>0.400010347366333</v>
       </c>
       <c r="W173" t="n">
-        <v>0.03352715447545052</v>
+        <v>4.579598316922784e-05</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3954341411590576</v>
       </c>
       <c r="V174" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.5223775506019592</v>
       </c>
       <c r="W174" t="n">
-        <v>0.0002547665790189058</v>
+        <v>0.01611462980508804</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3906009197235107</v>
       </c>
       <c r="V175" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.4025417566299438</v>
       </c>
       <c r="W175" t="n">
-        <v>0.0001500203070463613</v>
+        <v>0.0001425835798727348</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.402489185333252</v>
       </c>
       <c r="V176" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.4005694091320038</v>
       </c>
       <c r="W176" t="n">
-        <v>0.002673774026334286</v>
+        <v>3.685540605147253e-06</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.407020092010498</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.400587409734726</v>
       </c>
       <c r="W177" t="n">
-        <v>0.01395956240594387</v>
+        <v>4.137940049986355e-05</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4001131057739258</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.3999315500259399</v>
       </c>
       <c r="W178" t="n">
-        <v>0.01074003055691719</v>
+        <v>3.296248962669779e-08</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3924248218536377</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.3998872339725494</v>
       </c>
       <c r="W179" t="n">
-        <v>0.005105016753077507</v>
+        <v>5.56875929760281e-05</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3933250904083252</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.4010612666606903</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0005921877454966307</v>
+        <v>5.984842209727503e-05</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4109649658203125</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.5267583131790161</v>
       </c>
       <c r="W181" t="n">
-        <v>0.002758075715973973</v>
+        <v>0.01340809930115938</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.930757999420166</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.4010470807552338</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1647901386022568</v>
+        <v>0.2805936336517334</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9007179737091064</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.5235193967819214</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1559323370456696</v>
+        <v>0.1422787606716156</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8538830280303955</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.5288079977035522</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1540068238973618</v>
+        <v>0.1056737750768661</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8625741004943848</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.8744691610336304</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1140863075852394</v>
+        <v>0.0001414924627169967</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.9210469722747803</v>
       </c>
       <c r="V186" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.86704421043396</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1730154901742935</v>
+        <v>0.002916298341006041</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8796489238739014</v>
       </c>
       <c r="V187" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.874818742275238</v>
       </c>
       <c r="W187" t="n">
-        <v>0.02942272834479809</v>
+        <v>2.333065458515193e-05</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8608701229095459</v>
       </c>
       <c r="V188" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.532171368598938</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1964575052261353</v>
+        <v>0.108042873442173</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8589789867401123</v>
       </c>
       <c r="V189" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.5241985321044922</v>
       </c>
       <c r="W189" t="n">
-        <v>0.0004768387880176306</v>
+        <v>0.1120779514312744</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.9136989116668701</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.4011447131633759</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1512462049722672</v>
+        <v>0.262711763381958</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.908707857131958</v>
       </c>
       <c r="V191" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.8874179720878601</v>
       </c>
       <c r="W191" t="n">
-        <v>0.005565655417740345</v>
+        <v>0.0004532592138275504</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8630239963531494</v>
       </c>
       <c r="V192" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.5084441304206848</v>
       </c>
       <c r="W192" t="n">
-        <v>0.001111744903028011</v>
+        <v>0.1257268786430359</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.854511022567749</v>
       </c>
       <c r="V193" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.4005836546421051</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2530256807804108</v>
+        <v>0.2060500532388687</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.9141519069671631</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.4005088210105896</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1674671918153763</v>
+        <v>0.263829231262207</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.863649845123291</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.8704274892807007</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1149677559733391</v>
+        <v>4.593646008288488e-05</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8595011234283447</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.5157918334007263</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1953297853469849</v>
+        <v>0.118136078119278</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8564651012420654</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.3999047577381134</v>
       </c>
       <c r="W197" t="n">
-        <v>0.06940139085054398</v>
+        <v>0.2084473520517349</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.91792893409729</v>
       </c>
       <c r="V198" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.8865077495574951</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2979300022125244</v>
+        <v>0.000987290870398283</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8616671562194824</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.4004903435707092</v>
       </c>
       <c r="W199" t="n">
-        <v>0.07787761092185974</v>
+        <v>0.2126840502023697</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8541388511657715</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.8677833676338196</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1523463129997253</v>
+        <v>0.0001861728233052418</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8800570964813232</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.518059253692627</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1687992811203003</v>
+        <v>0.1310424357652664</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5678768157958984</v>
       </c>
       <c r="V202" t="n">
-        <v>0.802417516708374</v>
+        <v>0.5214512944221497</v>
       </c>
       <c r="W202" t="n">
-        <v>0.05500933900475502</v>
+        <v>0.00215532910078764</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.514833927154541</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.8769974112510681</v>
       </c>
       <c r="W203" t="n">
-        <v>0.009447812102735043</v>
+        <v>0.1311623901128769</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5260651111602783</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.8685094118118286</v>
       </c>
       <c r="W204" t="n">
-        <v>0.01175383944064379</v>
+        <v>0.1172681003808975</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.517125129699707</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.5203136801719666</v>
       </c>
       <c r="W205" t="n">
-        <v>0.01863641664385796</v>
+        <v>1.016685382637661e-05</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5141780376434326</v>
       </c>
       <c r="V206" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.873685896396637</v>
       </c>
       <c r="W206" t="n">
-        <v>0.0001074717220035382</v>
+        <v>0.1292459070682526</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5359299182891846</v>
       </c>
       <c r="V207" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.8671491742134094</v>
       </c>
       <c r="W207" t="n">
-        <v>0.03429022431373596</v>
+        <v>0.1097061932086945</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5157561302185059</v>
       </c>
       <c r="V208" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.5284680128097534</v>
       </c>
       <c r="W208" t="n">
-        <v>0.1060783416032791</v>
+        <v>0.0001615919609321281</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5315990447998047</v>
       </c>
       <c r="V209" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.8877477049827576</v>
       </c>
       <c r="W209" t="n">
-        <v>0.02810152061283588</v>
+        <v>0.1268418729305267</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.51698899269104</v>
       </c>
       <c r="V210" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.5287858843803406</v>
       </c>
       <c r="W210" t="n">
-        <v>0.03320863842964172</v>
+        <v>0.0001391666592098773</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5223329067230225</v>
       </c>
       <c r="V211" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.4004735052585602</v>
       </c>
       <c r="W211" t="n">
-        <v>0.09711965173482895</v>
+        <v>0.01484971400350332</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.520453929901123</v>
       </c>
       <c r="V212" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.5226861834526062</v>
       </c>
       <c r="W212" t="n">
-        <v>0.207130491733551</v>
+        <v>4.982955942978151e-06</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5225491523742676</v>
       </c>
       <c r="V213" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.8655743598937988</v>
       </c>
       <c r="W213" t="n">
-        <v>0.000334534386638552</v>
+        <v>0.1176662966609001</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5179979801177979</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.4004933536052704</v>
       </c>
       <c r="W214" t="n">
-        <v>0.01858041062951088</v>
+        <v>0.0138073367998004</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5212459564208984</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.3990388214588165</v>
       </c>
       <c r="W215" t="n">
-        <v>0.0009543349733576179</v>
+        <v>0.01493458356708288</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5182290077209473</v>
       </c>
       <c r="V216" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.5196040272712708</v>
       </c>
       <c r="W216" t="n">
-        <v>0.02137965150177479</v>
+        <v>1.890678731797379e-06</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5201139450073242</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.8605543375015259</v>
       </c>
       <c r="W217" t="n">
-        <v>0.004486089572310448</v>
+        <v>0.1158996596932411</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5731589794158936</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.400468498468399</v>
       </c>
       <c r="W218" t="n">
-        <v>0.004687194246798754</v>
+        <v>0.02982200309634209</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5226938724517822</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.4004565179347992</v>
       </c>
       <c r="W219" t="n">
-        <v>0.004618613515049219</v>
+        <v>0.01494197081774473</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5205881595611572</v>
       </c>
       <c r="V220" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.8739798069000244</v>
       </c>
       <c r="W220" t="n">
-        <v>0.2066650390625</v>
+        <v>0.124885655939579</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5168888568878174</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.5229421854019165</v>
       </c>
       <c r="W221" t="n">
-        <v>0.03324605897068977</v>
+        <v>3.66427848348394e-05</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3887159824371338</v>
       </c>
       <c r="V222" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.8827784657478333</v>
       </c>
       <c r="W222" t="n">
-        <v>0.3444055020809174</v>
+        <v>0.2440977394580841</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3898229598999023</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.8821862936019897</v>
       </c>
       <c r="W223" t="n">
-        <v>0.009982852265238762</v>
+        <v>0.2424216568470001</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4194519519805908</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.5138038396835327</v>
       </c>
       <c r="W224" t="n">
-        <v>3.16544173983857e-06</v>
+        <v>0.008902278728783131</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3898060321807861</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.528150737285614</v>
       </c>
       <c r="W225" t="n">
-        <v>0.01018159091472626</v>
+        <v>0.01913925819098949</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3921728134155273</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.8931058049201965</v>
       </c>
       <c r="W226" t="n">
-        <v>0.000644853338599205</v>
+        <v>0.2509338557720184</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3946051597595215</v>
       </c>
       <c r="V227" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.5156614184379578</v>
       </c>
       <c r="W227" t="n">
-        <v>0.001827684929594398</v>
+        <v>0.01465461775660515</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3947889804840088</v>
       </c>
       <c r="V228" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.4004997909069061</v>
       </c>
       <c r="W228" t="n">
-        <v>0.08883397281169891</v>
+        <v>3.261335587012582e-05</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4008910655975342</v>
       </c>
       <c r="V229" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.8885824680328369</v>
       </c>
       <c r="W229" t="n">
-        <v>0.1873452961444855</v>
+        <v>0.2378429025411606</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.4470059871673584</v>
       </c>
       <c r="V230" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.4006148278713226</v>
       </c>
       <c r="W230" t="n">
-        <v>0.04189034923911095</v>
+        <v>0.002152139553800225</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3917229175567627</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.4011541306972504</v>
       </c>
       <c r="W231" t="n">
-        <v>0.009822876192629337</v>
+        <v>8.894778147805482e-05</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.395392894744873</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.8747088313102722</v>
       </c>
       <c r="W232" t="n">
-        <v>0.0004943782696500421</v>
+        <v>0.2297437638044357</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3932290077209473</v>
       </c>
       <c r="V233" t="n">
-        <v>0.699232816696167</v>
+        <v>0.8929979801177979</v>
       </c>
       <c r="W233" t="n">
-        <v>0.09363833069801331</v>
+        <v>0.2497690320014954</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3940830230712891</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.4011565148830414</v>
       </c>
       <c r="W234" t="n">
-        <v>0.03319958224892616</v>
+        <v>5.00342866871506e-05</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3967359066009521</v>
       </c>
       <c r="V235" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.5279587507247925</v>
       </c>
       <c r="W235" t="n">
-        <v>0.08385384082794189</v>
+        <v>0.01721943542361259</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4329109191894531</v>
       </c>
       <c r="V236" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.5191549062728882</v>
       </c>
       <c r="W236" t="n">
-        <v>0.006751744076609612</v>
+        <v>0.007438025437295437</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3919219970703125</v>
       </c>
       <c r="V237" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.8833405375480652</v>
       </c>
       <c r="W237" t="n">
-        <v>0.001695194747298956</v>
+        <v>0.2414921820163727</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3912811279296875</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.4000418186187744</v>
       </c>
       <c r="W238" t="n">
-        <v>0.01782058924436569</v>
+        <v>7.674970402149484e-05</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3863692283630371</v>
       </c>
       <c r="V239" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.4006129205226898</v>
       </c>
       <c r="W239" t="n">
-        <v>0.00121467630378902</v>
+        <v>0.0002028827730100602</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3880109786987305</v>
       </c>
       <c r="V240" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.8744274377822876</v>
       </c>
       <c r="W240" t="n">
-        <v>0.001388671575114131</v>
+        <v>0.2366009652614594</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3915109634399414</v>
       </c>
       <c r="V241" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.5235389471054077</v>
       </c>
       <c r="W241" t="n">
-        <v>7.359209121204913e-06</v>
+        <v>0.01743138767778873</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9688770771026611</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.3990409076213837</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1541047543287277</v>
+        <v>0.3247132301330566</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8873858451843262</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.5151814818382263</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1581605821847916</v>
+        <v>0.1385360807180405</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8699460029602051</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.5278452038764954</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1180708929896355</v>
+        <v>0.1170329600572586</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8767621517181396</v>
       </c>
       <c r="V245" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.4000221192836761</v>
       </c>
       <c r="W245" t="n">
-        <v>0.005700431764125824</v>
+        <v>0.2272810637950897</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.924044132232666</v>
       </c>
       <c r="V246" t="n">
-        <v>0.417653352022171</v>
+        <v>0.4004877805709839</v>
       </c>
       <c r="W246" t="n">
-        <v>0.2564316391944885</v>
+        <v>0.2741112411022186</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8731060028076172</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.5248727798461914</v>
       </c>
       <c r="W247" t="n">
-        <v>0.04822205007076263</v>
+        <v>0.1212663799524307</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8666858673095703</v>
       </c>
       <c r="V248" t="n">
-        <v>0.490907609462738</v>
+        <v>0.4000422656536102</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1412093043327332</v>
+        <v>0.2177562564611435</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8703219890594482</v>
       </c>
       <c r="V249" t="n">
-        <v>0.490370512008667</v>
+        <v>0.5154534578323364</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1443631201982498</v>
+        <v>0.1259316802024841</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9223520755767822</v>
       </c>
       <c r="V250" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.399215042591095</v>
       </c>
       <c r="W250" t="n">
-        <v>0.2959335744380951</v>
+        <v>0.273672342300415</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8985769748687744</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.5266007781028748</v>
       </c>
       <c r="W251" t="n">
-        <v>0.191069483757019</v>
+        <v>0.1383662968873978</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.868959903717041</v>
       </c>
       <c r="V252" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.3990378379821777</v>
       </c>
       <c r="W252" t="n">
-        <v>0.04652089625597</v>
+        <v>0.2208267450332642</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.867455005645752</v>
       </c>
       <c r="V253" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.400167316198349</v>
       </c>
       <c r="W253" t="n">
-        <v>0.2669826149940491</v>
+        <v>0.2183577865362167</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9238629341125488</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.3989863395690918</v>
       </c>
       <c r="W254" t="n">
-        <v>0.2116042226552963</v>
+        <v>0.2754954397678375</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8743441104888916</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.5155038237571716</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1472513824701309</v>
+        <v>0.1287663578987122</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8645691871643066</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.8606225848197937</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1998592764139175</v>
+        <v>1.557566974952351e-05</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.872567892074585</v>
       </c>
       <c r="V257" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.4011250734329224</v>
       </c>
       <c r="W257" t="n">
-        <v>0.2722941339015961</v>
+        <v>0.2222583293914795</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9221258163452148</v>
       </c>
       <c r="V258" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.5244913101196289</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1738134026527405</v>
+        <v>0.1581131964921951</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8719618320465088</v>
       </c>
       <c r="V259" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.8662462830543518</v>
       </c>
       <c r="W259" t="n">
-        <v>0.04892991110682487</v>
+        <v>3.266749990871176e-05</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8595550060272217</v>
       </c>
       <c r="V260" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.3990416824817657</v>
       </c>
       <c r="W260" t="n">
-        <v>0.07669021189212799</v>
+        <v>0.2120725214481354</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8714239597320557</v>
       </c>
       <c r="V261" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.5154841542243958</v>
       </c>
       <c r="W261" t="n">
-        <v>0.2701322436332703</v>
+        <v>0.1266931444406509</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5803899765014648</v>
       </c>
       <c r="V262" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.5667729377746582</v>
       </c>
       <c r="W262" t="n">
-        <v>0.04949894174933434</v>
+        <v>0.0001854237489169464</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5359330177307129</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.3990128040313721</v>
       </c>
       <c r="W263" t="n">
-        <v>0.0139872170984745</v>
+        <v>0.01874714531004429</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5241751670837402</v>
       </c>
       <c r="V264" t="n">
-        <v>0.417630136013031</v>
+        <v>0.399883896112442</v>
       </c>
       <c r="W264" t="n">
-        <v>0.01135184336453676</v>
+        <v>0.01544831972569227</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5201199054718018</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.4021374583244324</v>
       </c>
       <c r="W265" t="n">
-        <v>0.02978626452386379</v>
+        <v>0.01391985826194286</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5223581790924072</v>
       </c>
       <c r="V266" t="n">
-        <v>0.417663037776947</v>
+        <v>0.3990308046340942</v>
       </c>
       <c r="W266" t="n">
-        <v>0.01096107251942158</v>
+        <v>0.01520964130759239</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5622568130493164</v>
       </c>
       <c r="V267" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.870668888092041</v>
       </c>
       <c r="W267" t="n">
-        <v>0.0567246787250042</v>
+        <v>0.09511800855398178</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.522320032119751</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.8850805759429932</v>
       </c>
       <c r="W268" t="n">
-        <v>0.0002962089492939413</v>
+        <v>0.1315952092409134</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5264480113983154</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.4023104310035706</v>
       </c>
       <c r="W269" t="n">
-        <v>0.003963522613048553</v>
+        <v>0.01541013922542334</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5224809646606445</v>
       </c>
       <c r="V270" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.3990390002727509</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01098739728331566</v>
+        <v>0.01523791812360287</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5219118595123291</v>
       </c>
       <c r="V271" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.3990256190299988</v>
       </c>
       <c r="W271" t="n">
-        <v>0.02064086124300957</v>
+        <v>0.01510102767497301</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5325601100921631</v>
       </c>
       <c r="V272" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.5227507352828979</v>
       </c>
       <c r="W272" t="n">
-        <v>0.001904503209516406</v>
+        <v>9.622383367968723e-05</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5309820175170898</v>
       </c>
       <c r="V273" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.8702225685119629</v>
       </c>
       <c r="W273" t="n">
-        <v>0.03383594006299973</v>
+        <v>0.1150841489434242</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5350761413574219</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.8769125938415527</v>
       </c>
       <c r="W274" t="n">
-        <v>0.01379447430372238</v>
+        <v>0.1168521568179131</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5228230953216553</v>
       </c>
       <c r="V275" t="n">
-        <v>0.975181519985199</v>
+        <v>0.8671759963035583</v>
       </c>
       <c r="W275" t="n">
-        <v>0.2046281397342682</v>
+        <v>0.1185789182782173</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5218360424041748</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.516988217830658</v>
       </c>
       <c r="W276" t="n">
-        <v>0.003366181626915932</v>
+        <v>2.350140312046278e-05</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5197210311889648</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.5156472325325012</v>
       </c>
       <c r="W277" t="n">
-        <v>0.003161867382004857</v>
+        <v>1.659583540458698e-05</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5819978713989258</v>
       </c>
       <c r="V278" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.8687517046928406</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01087505090981722</v>
+        <v>0.08222775906324387</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.52565598487854</v>
       </c>
       <c r="V279" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.4004650712013245</v>
       </c>
       <c r="W279" t="n">
-        <v>0.02363460883498192</v>
+        <v>0.01567276567220688</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5217568874359131</v>
       </c>
       <c r="V280" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.878340482711792</v>
       </c>
       <c r="W280" t="n">
-        <v>0.02923999167978764</v>
+        <v>0.1271518617868423</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5200741291046143</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.5236826539039612</v>
       </c>
       <c r="W281" t="n">
-        <v>0.003429652191698551</v>
+        <v>1.302145119552733e-05</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.3997402191162109</v>
       </c>
       <c r="V282" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.4004841148853302</v>
       </c>
       <c r="W282" t="n">
-        <v>0.0003172264259774238</v>
+        <v>5.53380914425361e-07</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3985359668731689</v>
       </c>
       <c r="V283" t="n">
-        <v>0.653571605682373</v>
+        <v>0.5277512073516846</v>
       </c>
       <c r="W283" t="n">
-        <v>0.06504317373037338</v>
+        <v>0.01669657789170742</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3998808860778809</v>
       </c>
       <c r="V284" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.3998892605304718</v>
       </c>
       <c r="W284" t="n">
-        <v>0.0004636642115656286</v>
+        <v>7.013145619794159e-11</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3987290859222412</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.5254411697387695</v>
       </c>
       <c r="W285" t="n">
-        <v>0.06529402732849121</v>
+        <v>0.01605595275759697</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3982019424438477</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.3990236222743988</v>
       </c>
       <c r="W286" t="n">
-        <v>0.01125629153102636</v>
+        <v>6.751577643626661e-07</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3971350193023682</v>
       </c>
       <c r="V287" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.3990185856819153</v>
       </c>
       <c r="W287" t="n">
-        <v>0.3346170485019684</v>
+        <v>3.547822416294366e-06</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.396536111831665</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.5181868076324463</v>
       </c>
       <c r="W288" t="n">
-        <v>0.005279436707496643</v>
+        <v>0.01479889173060656</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4056761264801025</v>
       </c>
       <c r="V289" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.5259252190589905</v>
       </c>
       <c r="W289" t="n">
-        <v>0.1870658397674561</v>
+        <v>0.01445984467864037</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.4446420669555664</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.8579587340354919</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0003669698198791593</v>
+        <v>0.1708306670188904</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3968877792358398</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.523198127746582</v>
       </c>
       <c r="W291" t="n">
-        <v>0.01170946191996336</v>
+        <v>0.01595430448651314</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.398813009262085</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.8870511054992676</v>
       </c>
       <c r="W292" t="n">
-        <v>0.01130181830376387</v>
+        <v>0.2383764386177063</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.397514820098877</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.4021896421909332</v>
       </c>
       <c r="W293" t="n">
-        <v>0.09102806448936462</v>
+        <v>2.185396078857593e-05</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3943510055541992</v>
       </c>
       <c r="V294" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.8695569634437561</v>
       </c>
       <c r="W294" t="n">
-        <v>0.08900737017393112</v>
+        <v>0.2258207052946091</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3956589698791504</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.4000173211097717</v>
       </c>
       <c r="W295" t="n">
-        <v>0.008993233554065228</v>
+        <v>1.899522612802684e-05</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.448112964630127</v>
       </c>
       <c r="V296" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.5150148868560791</v>
       </c>
       <c r="W296" t="n">
-        <v>0.06758130341768265</v>
+        <v>0.004475867375731468</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.405472993850708</v>
       </c>
       <c r="V297" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.4000433087348938</v>
       </c>
       <c r="W297" t="n">
-        <v>0.1592759191989899</v>
+        <v>2.948147994175088e-05</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3981130123138428</v>
       </c>
       <c r="V298" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.8709922432899475</v>
       </c>
       <c r="W298" t="n">
-        <v>0.03172501921653748</v>
+        <v>0.2236147671937943</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3922698497772217</v>
       </c>
       <c r="V299" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.5178735852241516</v>
       </c>
       <c r="W299" t="n">
-        <v>0.03614741936326027</v>
+        <v>0.01577629894018173</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3984370231628418</v>
       </c>
       <c r="V300" t="n">
-        <v>0.653493344783783</v>
+        <v>0.8868961334228516</v>
       </c>
       <c r="W300" t="n">
-        <v>0.06505372375249863</v>
+        <v>0.2385922968387604</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3982150554656982</v>
       </c>
       <c r="V301" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.8755424618721008</v>
       </c>
       <c r="W301" t="n">
-        <v>0.3333663642406464</v>
+        <v>0.2278414517641068</v>
       </c>
     </row>
     <row r="302" spans="1:23">
